--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2107106.613382419</v>
+        <v>-2109966.445617687</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15474543.12642772</v>
+        <v>15474543.12642773</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>151.7818547634951</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>184.7103924500744</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>2.335872960575898</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>29.04262315880808</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>54.33074065808219</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>74.29971406167097</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>81.76978256391702</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>130.019885588475</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>53.54118902606442</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>334.0627575140483</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489923</v>
+        <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
-        <v>309.978013057777</v>
+        <v>309.9780130577769</v>
       </c>
       <c r="I5" t="n">
-        <v>99.4372018947643</v>
+        <v>99.43720189476397</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926213</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075475</v>
+        <v>17.30657109506682</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.478189731062841</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442029</v>
+        <v>143.0590333442028</v>
       </c>
       <c r="T6" t="n">
         <v>193.9532570062491</v>
@@ -1032,13 +1032,13 @@
         <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>11.67514436244174</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>86.15654126360613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>83.96507827977217</v>
       </c>
       <c r="J7" t="n">
-        <v>2.017892827655857</v>
+        <v>2.017892827655601</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074074</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>284.9198092737812</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87073484362677</v>
+        <v>18.47212297171241</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>88.14919951609831</v>
+        <v>55.09184385879274</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>38.71178662106792</v>
       </c>
       <c r="T10" t="n">
-        <v>198.1189852868881</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417134</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>100.4057322893123</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695648</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>3.458642397732566</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>32.37373183919228</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>208.7327685259489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>70.58974991479201</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>151.5133592021556</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>116.287325111933</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.981188826526</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,7 +3427,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.6519665656065</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6519665656065</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6519665656065</v>
+        <v>213.7268003759393</v>
       </c>
       <c r="E2" t="n">
-        <v>217.6519665656065</v>
+        <v>213.7268003759393</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656065</v>
+        <v>206.7812996267359</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897903</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058979</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="T2" t="n">
-        <v>560.3867563937025</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="U2" t="n">
-        <v>560.3867563937025</v>
+        <v>589.7227393823983</v>
       </c>
       <c r="V2" t="n">
-        <v>560.3867563937025</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="W2" t="n">
-        <v>560.3867563937025</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="X2" t="n">
-        <v>370.9669713772178</v>
+        <v>400.3029543659134</v>
       </c>
       <c r="Y2" t="n">
-        <v>370.9669713772178</v>
+        <v>400.3029543659134</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.133934959413</v>
+        <v>499.8244192459955</v>
       </c>
       <c r="C3" t="n">
-        <v>166.133934959413</v>
+        <v>325.3713899648685</v>
       </c>
       <c r="D3" t="n">
-        <v>166.133934959413</v>
+        <v>325.3713899648685</v>
       </c>
       <c r="E3" t="n">
         <v>166.133934959413</v>
@@ -4401,58 +4401,58 @@
         <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>64.27357399906982</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198758</v>
+        <v>668.0397562660635</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198758</v>
+        <v>668.0397562660635</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198758</v>
+        <v>668.0397562660635</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198758</v>
+        <v>668.0397562660635</v>
       </c>
       <c r="X3" t="n">
-        <v>523.7690569959657</v>
+        <v>668.0397562660635</v>
       </c>
       <c r="Y3" t="n">
-        <v>334.349271979481</v>
+        <v>668.0397562660635</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>612.5614882768591</v>
+        <v>340.5459632968224</v>
       </c>
       <c r="C4" t="n">
-        <v>612.5614882768591</v>
+        <v>340.5459632968224</v>
       </c>
       <c r="D4" t="n">
-        <v>612.5614882768591</v>
+        <v>340.5459632968224</v>
       </c>
       <c r="E4" t="n">
-        <v>481.2282705107227</v>
+        <v>340.5459632968224</v>
       </c>
       <c r="F4" t="n">
-        <v>334.3383230128123</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="G4" t="n">
-        <v>165.6494995757273</v>
+        <v>193.6560157989121</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>38.67250990818522</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295949</v>
+        <v>373.5399563830975</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242515</v>
+        <v>559.1902876777544</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608017</v>
+        <v>721.9284911143046</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>746.725497984628</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="X4" t="n">
-        <v>612.5614882768591</v>
+        <v>612.5614882768599</v>
       </c>
       <c r="Y4" t="n">
-        <v>612.5614882768591</v>
+        <v>423.141703260375</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>903.527406564061</v>
+        <v>801.0942736506487</v>
       </c>
       <c r="C5" t="n">
-        <v>903.527406564061</v>
+        <v>801.0942736506487</v>
       </c>
       <c r="D5" t="n">
-        <v>849.4453974468242</v>
+        <v>801.0942736506487</v>
       </c>
       <c r="E5" t="n">
-        <v>463.6571448485799</v>
+        <v>463.6571448485797</v>
       </c>
       <c r="F5" t="n">
-        <v>456.7116440993765</v>
+        <v>456.7116440993763</v>
       </c>
       <c r="G5" t="n">
-        <v>444.1636205691752</v>
+        <v>444.163620569175</v>
       </c>
       <c r="H5" t="n">
-        <v>131.0545164704106</v>
+        <v>131.0545164704104</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489105</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="J5" t="n">
-        <v>93.3858082712145</v>
+        <v>93.38580827121541</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235833</v>
+        <v>238.2046462235851</v>
       </c>
       <c r="L5" t="n">
-        <v>454.766982319062</v>
+        <v>454.7669823190649</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643057</v>
+        <v>727.4037457643101</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453887</v>
+        <v>1009.065865453893</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831928</v>
+        <v>1261.696156831935</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855771</v>
+        <v>1442.809264855779</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744553</v>
+        <v>1530.644919744562</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744553</v>
+        <v>1530.644919744562</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744553</v>
+        <v>1385.808915913631</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744553</v>
+        <v>1385.808915913631</v>
       </c>
       <c r="U5" t="n">
-        <v>1276.993164825141</v>
+        <v>1132.157160994219</v>
       </c>
       <c r="V5" t="n">
-        <v>1276.993164825141</v>
+        <v>801.0942736506487</v>
       </c>
       <c r="W5" t="n">
-        <v>1276.993164825141</v>
+        <v>801.0942736506487</v>
       </c>
       <c r="X5" t="n">
-        <v>903.527406564061</v>
+        <v>801.0942736506487</v>
       </c>
       <c r="Y5" t="n">
-        <v>903.527406564061</v>
+        <v>801.0942736506487</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>288.1859537950484</v>
+        <v>331.8030609056157</v>
       </c>
       <c r="C6" t="n">
-        <v>288.1859537950484</v>
+        <v>331.8030609056157</v>
       </c>
       <c r="D6" t="n">
-        <v>288.1859537950484</v>
+        <v>331.8030609056157</v>
       </c>
       <c r="E6" t="n">
-        <v>128.9484987895928</v>
+        <v>331.8030609056157</v>
       </c>
       <c r="F6" t="n">
-        <v>128.9484987895928</v>
+        <v>185.2685029325007</v>
       </c>
       <c r="G6" t="n">
-        <v>128.9484987895928</v>
+        <v>48.09428333940318</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489105</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489105</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275257</v>
+        <v>174.0122915097579</v>
       </c>
       <c r="K6" t="n">
-        <v>159.074828147704</v>
+        <v>283.90495313471</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543702</v>
+        <v>477.9917394413773</v>
       </c>
       <c r="M6" t="n">
-        <v>715.1376207894648</v>
+        <v>723.8387327512296</v>
       </c>
       <c r="N6" t="n">
-        <v>1093.972238426242</v>
+        <v>990.6012093491811</v>
       </c>
       <c r="O6" t="n">
-        <v>1315.787993034612</v>
+        <v>1212.416963957553</v>
       </c>
       <c r="P6" t="n">
-        <v>1474.481625486915</v>
+        <v>1371.110596409857</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744553</v>
+        <v>1530.644919744562</v>
       </c>
       <c r="R6" t="n">
-        <v>1526.121495773782</v>
+        <v>1530.644919744562</v>
       </c>
       <c r="S6" t="n">
-        <v>1381.617421688729</v>
+        <v>1386.140845659508</v>
       </c>
       <c r="T6" t="n">
-        <v>1185.705040874336</v>
+        <v>1190.228464845115</v>
       </c>
       <c r="U6" t="n">
-        <v>957.5838308886382</v>
+        <v>962.1072548594182</v>
       </c>
       <c r="V6" t="n">
-        <v>722.4317226568955</v>
+        <v>962.1072548594182</v>
       </c>
       <c r="W6" t="n">
-        <v>468.1943659286939</v>
+        <v>707.8698981312166</v>
       </c>
       <c r="X6" t="n">
-        <v>456.4012908151164</v>
+        <v>500.0183979256838</v>
       </c>
       <c r="Y6" t="n">
-        <v>456.4012908151164</v>
+        <v>500.0183979256838</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>269.7946227478955</v>
+        <v>286.4005672898969</v>
       </c>
       <c r="C7" t="n">
-        <v>182.7678133907175</v>
+        <v>117.46438436199</v>
       </c>
       <c r="D7" t="n">
-        <v>32.65117397838182</v>
+        <v>117.46438436199</v>
       </c>
       <c r="E7" t="n">
-        <v>32.65117397838182</v>
+        <v>117.46438436199</v>
       </c>
       <c r="F7" t="n">
-        <v>32.65117397838182</v>
+        <v>117.46438436199</v>
       </c>
       <c r="G7" t="n">
-        <v>32.65117397838182</v>
+        <v>117.46438436199</v>
       </c>
       <c r="H7" t="n">
-        <v>32.65117397838182</v>
+        <v>117.46438436199</v>
       </c>
       <c r="I7" t="n">
-        <v>32.65117397838182</v>
+        <v>32.65117397838174</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489105</v>
+        <v>30.61289839489124</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1668774983381</v>
+        <v>157.1668774983387</v>
       </c>
       <c r="L7" t="n">
-        <v>374.6388343436925</v>
+        <v>374.6388343436936</v>
       </c>
       <c r="M7" t="n">
-        <v>614.3216441132932</v>
+        <v>614.321644113295</v>
       </c>
       <c r="N7" t="n">
-        <v>853.739948805847</v>
+        <v>853.7399488058493</v>
       </c>
       <c r="O7" t="n">
-        <v>1058.865208650459</v>
+        <v>1058.865208650462</v>
       </c>
       <c r="P7" t="n">
-        <v>1210.864622702304</v>
+        <v>1210.864622702307</v>
       </c>
       <c r="Q7" t="n">
-        <v>1232.666058086411</v>
+        <v>1232.666058086415</v>
       </c>
       <c r="R7" t="n">
-        <v>1232.666058086411</v>
+        <v>1232.666058086415</v>
       </c>
       <c r="S7" t="n">
-        <v>1232.666058086411</v>
+        <v>1232.666058086415</v>
       </c>
       <c r="T7" t="n">
-        <v>1007.993922826404</v>
+        <v>1232.666058086415</v>
       </c>
       <c r="U7" t="n">
-        <v>1007.993922826404</v>
+        <v>943.5260994695536</v>
       </c>
       <c r="V7" t="n">
-        <v>1007.993922826404</v>
+        <v>688.8416112636668</v>
       </c>
       <c r="W7" t="n">
-        <v>718.5767527894429</v>
+        <v>688.8416112636668</v>
       </c>
       <c r="X7" t="n">
-        <v>490.5872018914256</v>
+        <v>688.8416112636668</v>
       </c>
       <c r="Y7" t="n">
-        <v>269.7946227478955</v>
+        <v>468.0490321201366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1077.331341235881</v>
+        <v>823.7241768983893</v>
       </c>
       <c r="C8" t="n">
-        <v>708.3688242954693</v>
+        <v>454.7616599579775</v>
       </c>
       <c r="D8" t="n">
-        <v>350.1031256887188</v>
+        <v>454.7616599579775</v>
       </c>
       <c r="E8" t="n">
-        <v>62.30533854348519</v>
+        <v>68.9734073597333</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>62.02790661052983</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.396939561082</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.931181300003</v>
+        <v>1210.324016962511</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.931181300003</v>
+        <v>1210.324016962511</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>761.5682439298482</v>
+        <v>728.1769755891355</v>
       </c>
       <c r="C9" t="n">
-        <v>587.1152146487212</v>
+        <v>553.7239463080085</v>
       </c>
       <c r="D9" t="n">
-        <v>438.18080498747</v>
+        <v>404.7895366467573</v>
       </c>
       <c r="E9" t="n">
-        <v>278.9433499820145</v>
+        <v>245.5520816413018</v>
       </c>
       <c r="F9" t="n">
-        <v>132.4087920088994</v>
+        <v>99.01752366818673</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
         <v>214.3836900926279</v>
       </c>
       <c r="K9" t="n">
-        <v>633.2955414799095</v>
+        <v>440.9010965631272</v>
       </c>
       <c r="L9" t="n">
-        <v>892.7144661368407</v>
+        <v>698.4522321231148</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.62136160535</v>
+        <v>1018.359127591624</v>
       </c>
       <c r="N9" t="n">
-        <v>1555.403885599981</v>
+        <v>1361.141651586255</v>
       </c>
       <c r="O9" t="n">
-        <v>1846.763131854547</v>
+        <v>1652.500897840821</v>
       </c>
       <c r="P9" t="n">
-        <v>2061.271547415448</v>
+        <v>1867.009313401722</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059888</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2029.49516640637</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>2029.49516640637</v>
       </c>
       <c r="U9" t="n">
-        <v>1834.784844880347</v>
+        <v>1801.393576539635</v>
       </c>
       <c r="V9" t="n">
-        <v>1599.632736648605</v>
+        <v>1566.241468307892</v>
       </c>
       <c r="W9" t="n">
-        <v>1345.395379920403</v>
+        <v>1312.00411157969</v>
       </c>
       <c r="X9" t="n">
-        <v>1137.54387971487</v>
+        <v>1104.152611374157</v>
       </c>
       <c r="Y9" t="n">
-        <v>929.7835809499163</v>
+        <v>896.3923126092036</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>825.3578893636208</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>656.4217064357139</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>506.3050670233781</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>358.391973440985</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174231</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
         <v>213.7203003246705</v>
@@ -4984,28 +4984,28 @@
         <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1377.190882465729</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>1338.088067696974</v>
       </c>
       <c r="T10" t="n">
-        <v>1286.235191535174</v>
+        <v>1114.484210389597</v>
       </c>
       <c r="U10" t="n">
-        <v>997.1088705091976</v>
+        <v>825.3578893636208</v>
       </c>
       <c r="V10" t="n">
-        <v>742.4243823033107</v>
+        <v>825.3578893636208</v>
       </c>
       <c r="W10" t="n">
-        <v>453.0072122663501</v>
+        <v>825.3578893636208</v>
       </c>
       <c r="X10" t="n">
-        <v>225.0176613683328</v>
+        <v>825.3578893636208</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.0176613683328</v>
+        <v>825.3578893636208</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,40 +5051,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,16 +5112,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5130,16 +5130,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>121.3392859393708</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2345.543151974895</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.941686997837</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.866460342035</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342035</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,46 +5264,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,10 +5312,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606611</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327542</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204185</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>268.2292334372812</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>126.5174022794792</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690901</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.896109690901</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5832,13 +5832,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
         <v>1344.266747951538</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>414.4022433768874</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>414.4022433768874</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>247.2061440917674</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6373,10 +6373,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362679</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954144</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954155</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380734</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,7 +7327,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7342,7 +7342,7 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,19 +7360,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,37 +7582,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,7 +7819,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
         <v>2496.057455973196</v>
@@ -7828,28 +7828,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>82.97369176944322</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711118</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.5660510377763</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724355</v>
+        <v>34.66253762724301</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>117.3020333588317</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>113.2041828675014</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>104.4151808859266</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>70.1274138643137</v>
       </c>
       <c r="L9" t="n">
-        <v>1.886655653478385</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.9519868999855</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.7619602694821</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>129.3682389399022</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>113.047316183739</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>80.62055371233228</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>142.9753202488366</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>48.89210447937325</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>77.79022981064213</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772864</v>
+        <v>67700.85635772865</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
+        <v>82104.17698642836</v>
+      </c>
+      <c r="E2" t="n">
+        <v>80714.6599690006</v>
+      </c>
+      <c r="F2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80714.65996900063</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="J2" t="n">
+        <v>80714.65996900063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>80714.65996900064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="E2" t="n">
-        <v>80714.65996900066</v>
-      </c>
-      <c r="F2" t="n">
-        <v>80714.65996900066</v>
-      </c>
-      <c r="G2" t="n">
-        <v>80714.65996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>80714.6599690006</v>
-      </c>
-      <c r="I2" t="n">
-        <v>80714.65996900057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80714.65996900055</v>
-      </c>
-      <c r="K2" t="n">
-        <v>80714.65996900058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.17698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642833</v>
-      </c>
       <c r="N2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="O2" t="n">
         <v>82104.17698642836</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208455</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996498</v>
+        <v>216004.0468996523</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960623</v>
+        <v>167084.5112960598</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742655</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838259</v>
+        <v>50221.67010838316</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064601</v>
+        <v>59784.02116064542</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515982</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>195959.7647260689</v>
       </c>
       <c r="C4" t="n">
-        <v>220711.7529307696</v>
+        <v>220711.752930769</v>
       </c>
       <c r="D4" t="n">
         <v>173824.4120003228</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685504</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994855</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994858</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994846</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790101</v>
+        <v>72511.97598790118</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776601.6113007992</v>
+        <v>-776961.6943165167</v>
       </c>
       <c r="C6" t="n">
-        <v>-427123.5988318921</v>
+        <v>-427123.5988318941</v>
       </c>
       <c r="D6" t="n">
-        <v>-344003.828165829</v>
+        <v>-344003.8281658265</v>
       </c>
       <c r="E6" t="n">
-        <v>-636067.829506027</v>
+        <v>-636102.5674314623</v>
       </c>
       <c r="F6" t="n">
-        <v>-34624.62193176147</v>
+        <v>-34659.35985719723</v>
       </c>
       <c r="G6" t="n">
-        <v>-34624.62193176149</v>
+        <v>-34659.35985719724</v>
       </c>
       <c r="H6" t="n">
-        <v>-34624.62193176159</v>
+        <v>-34659.35985719721</v>
       </c>
       <c r="I6" t="n">
-        <v>-34624.62193176162</v>
+        <v>-34659.35985719721</v>
       </c>
       <c r="J6" t="n">
-        <v>-83689.56666030623</v>
+        <v>-83724.30458574188</v>
       </c>
       <c r="K6" t="n">
-        <v>-84846.29204014418</v>
+        <v>-84881.02996558038</v>
       </c>
       <c r="L6" t="n">
-        <v>-103051.5713680816</v>
+        <v>-103051.5713680811</v>
       </c>
       <c r="M6" t="n">
-        <v>-200413.9307590338</v>
+        <v>-200413.9307590335</v>
       </c>
       <c r="N6" t="n">
-        <v>-43267.55020743568</v>
+        <v>-43267.5502074355</v>
       </c>
       <c r="O6" t="n">
-        <v>-43267.5502074355</v>
+        <v>-43267.55020743559</v>
       </c>
       <c r="P6" t="n">
-        <v>-43267.5502074356</v>
+        <v>-43267.55020743547</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836612</v>
+        <v>716.4483122836632</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361382</v>
+        <v>382.6612299361404</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>-7.126008595464397e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707566</v>
+        <v>167.9783713707585</v>
       </c>
       <c r="D3" t="n">
-        <v>137.262352254023</v>
+        <v>137.2623522540209</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039901</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698183</v>
+        <v>195.1356427698204</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900251</v>
+        <v>159.4537267900226</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734857</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698183</v>
+        <v>195.1356427698204</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900251</v>
+        <v>159.4537267900226</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734857</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698183</v>
+        <v>195.1356427698204</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900251</v>
+        <v>159.4537267900226</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734857</v>
+        <v>630.5933313734853</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>169.9726491706086</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>184.4012578973987</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121492</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,13 +27458,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>141.078857133919</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>131.4732711418065</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>98.06219761802028</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>16.41407705809416</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577472</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>301.1418525946185</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>47.86761255821352</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926215</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.487799365049</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>80.04567329568789</v>
       </c>
       <c r="I6" t="n">
-        <v>36.33890406437035</v>
+        <v>36.3389040643702</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.478189731062557</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>194.0978408410357</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>81.0902798350217</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037443</v>
+        <v>32.63275702397203</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106943</v>
+        <v>119.2023528106941</v>
       </c>
       <c r="S7" t="n">
         <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>97.01056079848058</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.3986118719144</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27907,7 +27907,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>47.35803433093695</v>
+        <v>80.41538998824251</v>
       </c>
       <c r="H9" t="n">
         <v>94.50081326185514</v>
@@ -27983,10 +27983,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>158.4759041385479</v>
       </c>
       <c r="T10" t="n">
-        <v>23.24883344741454</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235822</v>
+        <v>2.88019422023583</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799011</v>
+        <v>29.4967890579902</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756416</v>
+        <v>111.0386876756419</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997403</v>
+        <v>244.452884199741</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423227</v>
+        <v>366.3715055423237</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098648</v>
+        <v>454.5162494098661</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739836</v>
+        <v>505.736903373985</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022286</v>
+        <v>513.9202552022301</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247586</v>
+        <v>485.2803239247601</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126868</v>
+        <v>414.1755291126879</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004913</v>
+        <v>311.0285736004922</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868886</v>
+        <v>180.9230001868891</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362385</v>
+        <v>65.63242579362404</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908232</v>
+        <v>12.60805019908235</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188657</v>
+        <v>0.2304155376188663</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044101</v>
+        <v>1.541039766044106</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574172</v>
+        <v>14.88319984574176</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704472</v>
+        <v>53.05772878704488</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594561</v>
+        <v>145.5944631594565</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844109</v>
+        <v>248.8441274844116</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754967</v>
+        <v>334.6016386754977</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945953</v>
+        <v>390.4643301945964</v>
       </c>
       <c r="N6" t="n">
-        <v>400.79875915197</v>
+        <v>400.7987591519712</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306771</v>
+        <v>366.6525622306781</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510004</v>
+        <v>294.2710058510012</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462611</v>
+        <v>196.7123743462617</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158029</v>
+        <v>95.67964442158058</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963493</v>
+        <v>28.62413775963502</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572494</v>
+        <v>6.211471688572511</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1013841951344804</v>
+        <v>0.1013841951344807</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970536</v>
+        <v>1.29195597297054</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513805</v>
+        <v>11.48666310513808</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351396</v>
+        <v>38.85263962351407</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901692</v>
+        <v>91.34128728901717</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505768</v>
+        <v>150.1017939505772</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178196</v>
+        <v>192.0786180178201</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902814</v>
+        <v>202.519971290282</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273914</v>
+        <v>197.704499027392</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522355</v>
+        <v>182.612104252236</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036365</v>
+        <v>156.2562024036369</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548328</v>
+        <v>108.1836951548331</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647519</v>
+        <v>58.09103856647536</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258652</v>
+        <v>22.51526909258659</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874108</v>
+        <v>5.520175520874124</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839298</v>
+        <v>0.07047032579839317</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496626</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366843</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>489.3502824033309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>653.3850396373771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,13 +33023,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>398.1179220955534</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34863,16 +34863,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>99.08507489005474</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>28.45844197068246</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.406979673054</v>
+        <v>63.40697967305471</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973421</v>
+        <v>146.2816544973432</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398776</v>
+        <v>218.7498344398788</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467108</v>
+        <v>275.3906701467123</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056377</v>
+        <v>284.5071916056392</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030719</v>
+        <v>255.1821125030733</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574172</v>
+        <v>182.9425333574184</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604183</v>
+        <v>88.72288372604268</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.7568364927894</v>
+        <v>144.8478718331987</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100519</v>
+        <v>111.0026885100526</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956225</v>
+        <v>196.0472588956235</v>
       </c>
       <c r="M6" t="n">
-        <v>365.6323296314087</v>
+        <v>248.3302962725781</v>
       </c>
       <c r="N6" t="n">
-        <v>382.6612299361382</v>
+        <v>269.4570470686378</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862326</v>
+        <v>224.0563177862336</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366701</v>
+        <v>160.296598436671</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026023958</v>
+        <v>161.1457811461667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.832302124694</v>
+        <v>127.8323021246944</v>
       </c>
       <c r="L7" t="n">
-        <v>219.6686432781357</v>
+        <v>219.6686432781363</v>
       </c>
       <c r="M7" t="n">
-        <v>242.103848252122</v>
+        <v>242.1038482521226</v>
       </c>
       <c r="N7" t="n">
-        <v>241.83667140662</v>
+        <v>241.8366714066206</v>
       </c>
       <c r="O7" t="n">
-        <v>207.1972321662752</v>
+        <v>207.1972321662757</v>
       </c>
       <c r="P7" t="n">
-        <v>153.5347616685299</v>
+        <v>153.5347616685304</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.02165190313845</v>
+        <v>22.02165190313876</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>172.7419126813483</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295773</v>
+        <v>228.8054610813124</v>
       </c>
       <c r="L9" t="n">
-        <v>262.039317835284</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
         <v>323.1382782510195</v>
@@ -35270,10 +35270,10 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663293</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.286271753351</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>347.2162484813126</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>510.7887951929326</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>259.5635423156792</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
